--- a/examples/interaction_lists/ids_reading.xlsx
+++ b/examples/interaction_lists/ids_reading.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/gaz11_pitt_edu/Documents/Personal/Github/BioRECIPE/examples/interaction_lists/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0B2E72B7B01BEC174C5709F2ABF0E7E214D1C1F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18E8783-F991-BC41-A031-AB3B97DD1DC4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statements" sheetId="1" r:id="rId1"/>
     <sheet name="Paper Not Found" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
   <si>
     <t>Regulator Name</t>
   </si>
@@ -99,12 +105,6 @@
   </si>
   <si>
     <t>Paper IDs</t>
-  </si>
-  <si>
-    <t>Database Source</t>
-  </si>
-  <si>
-    <t>Database ID</t>
   </si>
   <si>
     <t>AKT</t>
@@ -317,8 +317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +381,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -425,7 +433,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -459,6 +467,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -493,9 +502,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -668,14 +678,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,1064 +772,1058 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
         <v>74</v>
-      </c>
-      <c r="S2" t="s">
-        <v>76</v>
       </c>
       <c r="Y2">
         <v>0.65</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s">
         <v>74</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
       </c>
       <c r="Y3">
         <v>0.86</v>
       </c>
       <c r="Z3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" t="s">
         <v>80</v>
       </c>
-      <c r="AA3" t="s">
-        <v>82</v>
-      </c>
       <c r="AB3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" t="s">
         <v>74</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
       </c>
       <c r="Y4">
         <v>0.65</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y5">
         <v>0.65</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y6">
         <v>0.65</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y7">
         <v>0.65</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y8">
         <v>0.65</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" t="s">
         <v>74</v>
-      </c>
-      <c r="S9" t="s">
-        <v>76</v>
       </c>
       <c r="Y9">
         <v>0.65</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
         <v>74</v>
-      </c>
-      <c r="S10" t="s">
-        <v>76</v>
       </c>
       <c r="Y10">
         <v>0.65</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y11">
         <v>0.65</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y12">
         <v>0.65</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y13">
         <v>0.65</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y14">
         <v>0.65</v>
       </c>
       <c r="Z14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" t="s">
         <v>74</v>
-      </c>
-      <c r="S15" t="s">
-        <v>76</v>
       </c>
       <c r="Y15">
         <v>0.65</v>
       </c>
       <c r="Z15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y17">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s">
         <v>92</v>
       </c>
-      <c r="AB15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="AB17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="M16" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y16">
-        <v>0.923</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" t="s">
-        <v>74</v>
-      </c>
-      <c r="S17" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y17">
-        <v>0.923</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y18">
         <v>0.65</v>
       </c>
       <c r="Z18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AB18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
         <v>75</v>
-      </c>
-      <c r="S19" t="s">
-        <v>77</v>
       </c>
       <c r="Y19">
         <v>0.65</v>
       </c>
       <c r="Z19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AB19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y20">
         <v>0.65</v>
       </c>
       <c r="Z20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" t="s">
-        <v>72</v>
-      </c>
       <c r="R21" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" t="s">
         <v>74</v>
-      </c>
-      <c r="S21" t="s">
-        <v>76</v>
       </c>
       <c r="Y21">
         <v>0.65</v>
       </c>
       <c r="Z21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" t="s">
         <v>62</v>
       </c>
-      <c r="M22" t="s">
-        <v>64</v>
-      </c>
       <c r="N22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" t="s">
         <v>71</v>
       </c>
-      <c r="Q22" t="s">
-        <v>73</v>
-      </c>
       <c r="R22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y22">
         <v>0.65</v>
       </c>
       <c r="Z22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1826,12 +1832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
